--- a/MyStore/src/test/resources/TestData/TestData.xlsx
+++ b/MyStore/src/test/resources/TestData/TestData.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="credentials" sheetId="1" r:id="rId1"/>
     <sheet name="productdetails" sheetId="2" r:id="rId2"/>
     <sheet name="searchproduct" sheetId="3" r:id="rId3"/>
     <sheet name="OrderDetails" sheetId="4" r:id="rId4"/>
+    <sheet name="createAccountDetails" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Password</t>
   </si>
@@ -50,6 +51,93 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Main plaza</t>
+  </si>
+  <si>
+    <t>Zensar</t>
+  </si>
+  <si>
+    <t>Janakiram</t>
+  </si>
+  <si>
+    <t>Vivek</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>vivekjj01@gmail.com</t>
+  </si>
+  <si>
+    <t>Vivek@1990</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>41205</t>
+  </si>
+  <si>
+    <t>9856723489</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -94,9 +182,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -534,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -571,11 +661,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -588,11 +678,11 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -604,4 +694,122 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>